--- a/Ej1/Mediciones/tc_tp3_ej1_zin.xlsx
+++ b/Ej1/Mediciones/tc_tp3_ej1_zin.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rochi\Google Drive\Materias\Teoría de circuitos\TPs\TC_TP3\Ej1\Mediciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -42,7 +47,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,14 +96,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -104,7 +118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -143,37 +156,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.97</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
@@ -206,7 +219,7 @@
             <c:numRef>
               <c:f>Hoja1!$F$2:$F$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>8997.0194174757253</c:v>
@@ -221,37 +234,37 @@
                   <c:v>9191.8823529411784</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15928.282312925172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36263.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66278.534031413612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91184.397163120579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143014.46051167964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114794.64285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>55040.000000000007</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>9890</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15928.282312925172</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36263.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66278.534031413612</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91184.397163120579</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>123625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>143014.46051167964</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>114794.64285714286</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>9118.8235294117658</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9890</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8814.9999999999982</c:v>
@@ -277,31 +290,36 @@
                 <c:pt idx="22">
                   <c:v>1438.5454545454545</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35BC-42A8-B380-B36B389F0F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -338,7 +356,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -349,7 +367,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -365,9 +382,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -379,7 +396,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -418,37 +434,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.97</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
@@ -496,37 +512,37 @@
                   <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8</c:v>
@@ -556,6 +572,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AF7-47AC-B86D-28AF94D49D99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -603,7 +624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -635,7 +655,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -665,7 +691,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -684,7 +716,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -726,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +791,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,6 +843,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,11 +1038,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1005,7 +1074,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0.1</v>
       </c>
       <c r="B2">
@@ -1021,20 +1090,24 @@
       <c r="E2">
         <v>-1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>D2/C2</f>
         <v>8997.0194174757253</v>
       </c>
+      <c r="G2">
+        <f>E2*(-1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>10.3</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C31" si="0">B3/$I$1</f>
+        <f>B3/$I$1</f>
         <v>1.0414560161779577E-3</v>
       </c>
       <c r="D3">
@@ -1043,20 +1116,24 @@
       <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F31" si="1">D3/C3</f>
+      <c r="F3" s="4">
+        <f>D3/C3</f>
         <v>8997.0194174757253</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="0">E3*(-1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>0.5</v>
       </c>
       <c r="B4">
         <v>10.3</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f>B4/$I$1</f>
         <v>1.0414560161779577E-3</v>
       </c>
       <c r="D4">
@@ -1065,20 +1142,24 @@
       <c r="E4">
         <v>-4</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="F4" s="4">
+        <f>D4/C4</f>
         <v>9006.6213592232998</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5">
         <v>10.199999999999999</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f>B5/$I$1</f>
         <v>1.031344792719919E-3</v>
       </c>
       <c r="D5">
@@ -1087,262 +1168,310 @@
       <c r="E5">
         <v>-9</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="F5" s="4">
+        <f>D5/C5</f>
         <v>9191.8823529411784</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2.2999999999999998</v>
+      <c r="A6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.1</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3255813953488371E-4</v>
-      </c>
-      <c r="D6">
-        <v>12.8</v>
+        <f>B6/$I$1</f>
+        <v>7.1789686552072799E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.1</v>
       </c>
       <c r="E6">
-        <v>63</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>55040.000000000007</v>
+        <v>-24</v>
+      </c>
+      <c r="F6" s="4">
+        <f>D6/C6</f>
+        <v>9890</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.5</v>
+      <c r="A7" s="2">
+        <v>1.8</v>
       </c>
       <c r="B7">
-        <v>7.1</v>
+        <v>5.88</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1789686552072799E-4</v>
+        <f>B7/$I$1</f>
+        <v>5.9453993933265923E-4</v>
       </c>
       <c r="D7">
-        <v>7.1</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E7">
-        <v>-24</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>9890</v>
+        <v>-51</v>
+      </c>
+      <c r="F7" s="4">
+        <f>D7/C7</f>
+        <v>15928.282312925172</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.8</v>
-      </c>
-      <c r="B8">
-        <v>5.88</v>
+      <c r="A8" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.3</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9453993933265923E-4</v>
+        <f>B8/$I$1</f>
+        <v>3.3367037411526795E-4</v>
       </c>
       <c r="D8">
-        <v>9.4700000000000006</v>
+        <v>12.1</v>
       </c>
       <c r="E8">
-        <v>-51</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>15928.282312925172</v>
+        <v>-62</v>
+      </c>
+      <c r="F8" s="4">
+        <f>D8/C8</f>
+        <v>36263.333333333336</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="B9">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3367037411526795E-4</v>
+        <f>B9/$I$1</f>
+        <v>1.9312436804853387E-4</v>
       </c>
       <c r="D9">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="E9">
-        <v>-62</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>36263.333333333336</v>
+        <v>-57</v>
+      </c>
+      <c r="F9" s="4">
+        <f>D9/C9</f>
+        <v>66278.534031413612</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="B10">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9312436804853387E-4</v>
-      </c>
-      <c r="D10">
-        <v>12.8</v>
+        <f>B10/$I$1</f>
+        <v>1.4256825075834175E-4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>-57</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>66278.534031413612</v>
+        <v>-48</v>
+      </c>
+      <c r="F10" s="4">
+        <f>D10/C10</f>
+        <v>91184.397163120579</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="B11">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4256825075834175E-4</v>
-      </c>
-      <c r="D11">
+        <f>B11/$I$1</f>
+        <v>1.0515672396359959E-4</v>
+      </c>
+      <c r="D11" s="3">
         <v>13</v>
       </c>
       <c r="E11">
-        <v>-48</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>91184.397163120579</v>
+        <v>-27</v>
+      </c>
+      <c r="F11" s="4">
+        <f>D11/C11</f>
+        <v>123625</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="B12">
-        <v>1.04</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0515672396359959E-4</v>
-      </c>
-      <c r="D12">
+        <f>B12/$I$1</f>
+        <v>9.0899898887765421E-5</v>
+      </c>
+      <c r="D12" s="3">
         <v>13</v>
       </c>
       <c r="E12">
-        <v>-27</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>123625</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <f>D12/C12</f>
+        <v>143014.46051167964</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="B13">
-        <v>0.89900000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0899898887765421E-5</v>
-      </c>
-      <c r="D13">
+        <f>B13/$I$1</f>
+        <v>1.1324570273003034E-4</v>
+      </c>
+      <c r="D13" s="3">
         <v>13</v>
       </c>
       <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>143014.46051167964</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="4">
+        <f>D13/C13</f>
+        <v>114794.64285714286</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.97</v>
-      </c>
-      <c r="B14">
-        <v>1.1200000000000001</v>
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1324570273003034E-4</v>
+        <f>B14/$I$1</f>
+        <v>2.3255813953488371E-4</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E14">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>114794.64285714286</v>
+        <v>63</v>
+      </c>
+      <c r="F14" s="4">
+        <f>D14/C14</f>
+        <v>55040.000000000007</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-63</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>2.5</v>
+      </c>
+      <c r="B15">
+        <v>7.15</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15/$I$1</f>
+        <v>7.2295247724974722E-4</v>
+      </c>
+      <c r="D15">
+        <v>7.15</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4">
+        <f>D15/C15</f>
+        <v>9890</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>7.31</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
+      <c r="C16" s="1">
+        <f>B16/$I$1</f>
         <v>7.3913043478260863E-4</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>6.74</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>17</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="F16" s="4">
+        <f>D16/C16</f>
         <v>9118.8235294117658</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.5</v>
-      </c>
-      <c r="B16">
-        <v>7.15</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>7.2295247724974722E-4</v>
-      </c>
-      <c r="D16">
-        <v>7.15</v>
-      </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>9890</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17">
         <v>7.36</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f>B17/$I$1</f>
         <v>7.4418604651162797E-4</v>
       </c>
       <c r="D17">
@@ -1351,12 +1480,16 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="F17" s="4">
+        <f>D17/C17</f>
         <v>8814.9999999999982</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1364,7 +1497,7 @@
         <v>7.39</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f>B18/$I$1</f>
         <v>7.4721941354903944E-4</v>
       </c>
       <c r="D18">
@@ -1373,20 +1506,24 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="F18" s="4">
+        <f>D18/C18</f>
         <v>8752.4492557510148</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>7.4</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f>B19/$I$1</f>
         <v>7.4823053589484327E-4</v>
       </c>
       <c r="D19">
@@ -1395,20 +1532,24 @@
       <c r="E19">
         <v>8</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
+      <c r="F19" s="4">
+        <f>D19/C19</f>
         <v>8740.6216216216217</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>7.6</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f>B20/$I$1</f>
         <v>7.6845298281092008E-4</v>
       </c>
       <c r="D20">
@@ -1417,12 +1558,16 @@
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
+      <c r="F20" s="4">
+        <f>D20/C20</f>
         <v>8419.5131578947367</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1430,7 +1575,7 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f>B21/$I$1</f>
         <v>8.311425682507584E-4</v>
       </c>
       <c r="D21">
@@ -1439,12 +1584,16 @@
       <c r="E21">
         <v>31</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
+      <c r="F21" s="4">
+        <f>D21/C21</f>
         <v>7507.7372262773724</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -1452,7 +1601,7 @@
         <v>9.69</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f>B22/$I$1</f>
         <v>9.797775530839231E-4</v>
       </c>
       <c r="D22">
@@ -1461,12 +1610,16 @@
       <c r="E22">
         <v>49</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
+      <c r="F22" s="4">
+        <f>D22/C22</f>
         <v>5572.693498452013</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>500</v>
       </c>
@@ -1474,7 +1627,7 @@
         <v>12.3</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f>B23/$I$1</f>
         <v>1.2436804853387261E-3</v>
       </c>
       <c r="D23">
@@ -1483,12 +1636,16 @@
       <c r="E23">
         <v>68</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
+      <c r="F23" s="4">
+        <f>D23/C23</f>
         <v>2717.7398373983738</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1000</v>
       </c>
@@ -1496,7 +1653,7 @@
         <v>13.2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f>B24/$I$1</f>
         <v>1.3346814964610718E-3</v>
       </c>
       <c r="D24">
@@ -1505,84 +1662,92 @@
       <c r="E24">
         <v>73</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
+      <c r="F24" s="4">
+        <f>D24/C24</f>
         <v>1438.5454545454545</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f>B25/$I$1</f>
         <v>0</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" si="1"/>
+        <f>D25/C25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f>B26/$I$1</f>
         <v>0</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="1"/>
+        <f>D26/C26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f>B27/$I$1</f>
         <v>0</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="1"/>
+        <f>D27/C27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f>B28/$I$1</f>
         <v>0</v>
       </c>
       <c r="F28" t="e">
-        <f t="shared" si="1"/>
+        <f>D28/C28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f>B29/$I$1</f>
         <v>0</v>
       </c>
       <c r="F29" t="e">
-        <f t="shared" si="1"/>
+        <f>D29/C29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f>B30/$I$1</f>
         <v>0</v>
       </c>
       <c r="F30" t="e">
-        <f t="shared" si="1"/>
+        <f>D30/C30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f>B31/$I$1</f>
         <v>0</v>
       </c>
       <c r="F31" t="e">
-        <f t="shared" si="1"/>
+        <f>D31/C31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1592,7 +1757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1604,7 +1769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
